--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janno\Desktop\Personal Projects\Data Analysis with Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janno\Desktop\Personal Projects\EDA-with-Microsoft-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEB28CE-C867-41A6-AD9F-6E92DAB21598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638CD553-B982-4FA2-A459-9CE5C96D008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5E5F4ACB-23E7-43A8-9532-C0FFD3ED00A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5E5F4ACB-23E7-43A8-9532-C0FFD3ED00A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Quick Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="EDA with Conditional Formatting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="51">
   <si>
     <t>Sales Person</t>
   </si>
@@ -248,7 +249,261 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -287,14 +542,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}" name="data" displayName="data" ref="A1:E301" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}" name="data" displayName="data" ref="A1:E301" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:E301" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A6515D10-5DFD-4ABA-9E39-EDDAB68DC7AF}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{7579BDDE-55C1-47CB-8E6A-562958650110}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{D80F9F01-54B8-43D5-A3A2-FC5812813FEF}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{6BF95C2F-66F5-4CF2-AD3D-A1139DCDBD8E}" name="Amount" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{30D824B3-AD7D-4E0E-B28E-17310FC0AC7A}" name="Units" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{6BF95C2F-66F5-4CF2-AD3D-A1139DCDBD8E}" name="Amount" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{30D824B3-AD7D-4E0E-B28E-17310FC0AC7A}" name="Units" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE49A5EA-C4A5-4074-ACD7-5977CC4A33D8}" name="data3" displayName="data3" ref="A1:E301" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:E301" xr:uid="{AE49A5EA-C4A5-4074-ACD7-5977CC4A33D8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
+    <sortCondition descending="1" ref="E1:E301"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1A5FD07E-A84C-4E9B-8B0B-CED073F7CF18}" name="Sales Person"/>
+    <tableColumn id="2" xr3:uid="{1510BFE9-AA46-4D84-8FC0-00B69FFA3E37}" name="Geography"/>
+    <tableColumn id="3" xr3:uid="{C141A14C-F92D-40C3-87A0-8A986F83C10E}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{7C669E56-6034-4110-9AF1-9B2C8CE62E9C}" name="Amount" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{AD849EE4-6F49-4141-8C43-48F92A09AC13}" name="Units" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6411E-158F-4956-9AEC-3C376E7C48D6}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A300" workbookViewId="0">
+      <selection sqref="A1:E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,10 +6011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CB01D-2B36-4953-868F-7072BFA11651}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,12 +6122,5201 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>50</v>
+      </c>
+      <c r="B11">
+        <f>COUNTA(_xlfn.UNIQUE(data[Product]))</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B43C959-8723-4486-AA1B-CBD7D849AD84}">
+  <dimension ref="A1:E301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5586</v>
+      </c>
+      <c r="E2" s="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>798</v>
+      </c>
+      <c r="E3" s="3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>819</v>
+      </c>
+      <c r="E4" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7777</v>
+      </c>
+      <c r="E5" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8463</v>
+      </c>
+      <c r="E6" s="3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1785</v>
+      </c>
+      <c r="E7" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6706</v>
+      </c>
+      <c r="E8" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3556</v>
+      </c>
+      <c r="E9" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8008</v>
+      </c>
+      <c r="E10" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2275</v>
+      </c>
+      <c r="E11" s="3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8869</v>
+      </c>
+      <c r="E12" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1904</v>
+      </c>
+      <c r="E14" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1302</v>
+      </c>
+      <c r="E15" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3052</v>
+      </c>
+      <c r="E16" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6853</v>
+      </c>
+      <c r="E17" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1932</v>
+      </c>
+      <c r="E18" s="3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E19" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>938</v>
+      </c>
+      <c r="E20" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2702</v>
+      </c>
+      <c r="E21" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4480</v>
+      </c>
+      <c r="E22" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4326</v>
+      </c>
+      <c r="E23" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3339</v>
+      </c>
+      <c r="E24" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2471</v>
+      </c>
+      <c r="E25" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15610</v>
+      </c>
+      <c r="E26" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4487</v>
+      </c>
+      <c r="E27" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7308</v>
+      </c>
+      <c r="E28" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4592</v>
+      </c>
+      <c r="E29" s="3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10129</v>
+      </c>
+      <c r="E30" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3689</v>
+      </c>
+      <c r="E31" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2">
+        <v>854</v>
+      </c>
+      <c r="E32" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3920</v>
+      </c>
+      <c r="E33" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3164</v>
+      </c>
+      <c r="E34" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>819</v>
+      </c>
+      <c r="E35" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8841</v>
+      </c>
+      <c r="E36" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6657</v>
+      </c>
+      <c r="E37" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1589</v>
+      </c>
+      <c r="E38" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4753</v>
+      </c>
+      <c r="E39" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2870</v>
+      </c>
+      <c r="E40" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5670</v>
+      </c>
+      <c r="E41" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9632</v>
+      </c>
+      <c r="E42" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5194</v>
+      </c>
+      <c r="E43" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3507</v>
+      </c>
+      <c r="E44" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2">
+        <v>245</v>
+      </c>
+      <c r="E45" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1134</v>
+      </c>
+      <c r="E46" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4858</v>
+      </c>
+      <c r="E47" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3808</v>
+      </c>
+      <c r="E48" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7259</v>
+      </c>
+      <c r="E49" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2">
+        <v>6657</v>
+      </c>
+      <c r="E50" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1085</v>
+      </c>
+      <c r="E51" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1778</v>
+      </c>
+      <c r="E52" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1071</v>
+      </c>
+      <c r="E53" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2317</v>
+      </c>
+      <c r="E54" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5677</v>
+      </c>
+      <c r="E55" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2415</v>
+      </c>
+      <c r="E56" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6755</v>
+      </c>
+      <c r="E57" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5551</v>
+      </c>
+      <c r="E58" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>385</v>
+      </c>
+      <c r="E59" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4753</v>
+      </c>
+      <c r="E60" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4438</v>
+      </c>
+      <c r="E61" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3094</v>
+      </c>
+      <c r="E62" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2856</v>
+      </c>
+      <c r="E63" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7833</v>
+      </c>
+      <c r="E64" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4585</v>
+      </c>
+      <c r="E65" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1526</v>
+      </c>
+      <c r="E66" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6279</v>
+      </c>
+      <c r="E67" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>12348</v>
+      </c>
+      <c r="E68" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2464</v>
+      </c>
+      <c r="E69" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1701</v>
+      </c>
+      <c r="E70" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2">
+        <v>10311</v>
+      </c>
+      <c r="E71" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="2">
+        <v>714</v>
+      </c>
+      <c r="E72" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2">
+        <v>567</v>
+      </c>
+      <c r="E73" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6608</v>
+      </c>
+      <c r="E74" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3101</v>
+      </c>
+      <c r="E75" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1274</v>
+      </c>
+      <c r="E76" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E77" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7455</v>
+      </c>
+      <c r="E78" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E79" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3752</v>
+      </c>
+      <c r="E80" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2">
+        <v>8890</v>
+      </c>
+      <c r="E81" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2">
+        <v>5012</v>
+      </c>
+      <c r="E82" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9835</v>
+      </c>
+      <c r="E83" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4242</v>
+      </c>
+      <c r="E84" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2">
+        <v>259</v>
+      </c>
+      <c r="E85" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="2">
+        <v>11522</v>
+      </c>
+      <c r="E86" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5355</v>
+      </c>
+      <c r="E87" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2639</v>
+      </c>
+      <c r="E88" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1771</v>
+      </c>
+      <c r="E89" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2">
+        <v>98</v>
+      </c>
+      <c r="E90" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="2">
+        <v>13391</v>
+      </c>
+      <c r="E91" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="2">
+        <v>9926</v>
+      </c>
+      <c r="E92" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7280</v>
+      </c>
+      <c r="E93" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4424</v>
+      </c>
+      <c r="E94" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2">
+        <v>966</v>
+      </c>
+      <c r="E95" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1974</v>
+      </c>
+      <c r="E96" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1890</v>
+      </c>
+      <c r="E97" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="2">
+        <v>861</v>
+      </c>
+      <c r="E98" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1925</v>
+      </c>
+      <c r="E99" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8862</v>
+      </c>
+      <c r="E100" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4949</v>
+      </c>
+      <c r="E101" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2954</v>
+      </c>
+      <c r="E102" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="2">
+        <v>938</v>
+      </c>
+      <c r="E103" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2114</v>
+      </c>
+      <c r="E104" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7021</v>
+      </c>
+      <c r="E105" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2">
+        <v>6580</v>
+      </c>
+      <c r="E106" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3864</v>
+      </c>
+      <c r="E107" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2646</v>
+      </c>
+      <c r="E108" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2324</v>
+      </c>
+      <c r="E109" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2">
+        <v>7847</v>
+      </c>
+      <c r="E110" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2">
+        <v>6118</v>
+      </c>
+      <c r="E111" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4725</v>
+      </c>
+      <c r="E112" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2">
+        <v>707</v>
+      </c>
+      <c r="E113" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4956</v>
+      </c>
+      <c r="E114" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4018</v>
+      </c>
+      <c r="E115" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="2">
+        <v>5474</v>
+      </c>
+      <c r="E116" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E117" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="2">
+        <v>21</v>
+      </c>
+      <c r="E118" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="2">
+        <v>3773</v>
+      </c>
+      <c r="E119" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="2">
+        <v>9443</v>
+      </c>
+      <c r="E120" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4018</v>
+      </c>
+      <c r="E121" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="2">
+        <v>973</v>
+      </c>
+      <c r="E122" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3794</v>
+      </c>
+      <c r="E123" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="2">
+        <v>98</v>
+      </c>
+      <c r="E124" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5019</v>
+      </c>
+      <c r="E125" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4970</v>
+      </c>
+      <c r="E126" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4305</v>
+      </c>
+      <c r="E127" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4417</v>
+      </c>
+      <c r="E128" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="2">
+        <v>14329</v>
+      </c>
+      <c r="E129" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5019</v>
+      </c>
+      <c r="E130" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3759</v>
+      </c>
+      <c r="E131" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="2">
+        <v>42</v>
+      </c>
+      <c r="E132" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2">
+        <v>959</v>
+      </c>
+      <c r="E133" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="2">
+        <v>6027</v>
+      </c>
+      <c r="E134" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="2">
+        <v>3983</v>
+      </c>
+      <c r="E135" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2429</v>
+      </c>
+      <c r="E136" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2">
+        <v>336</v>
+      </c>
+      <c r="E137" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2205</v>
+      </c>
+      <c r="E138" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1568</v>
+      </c>
+      <c r="E139" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2">
+        <v>11571</v>
+      </c>
+      <c r="E140" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2205</v>
+      </c>
+      <c r="E141" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2289</v>
+      </c>
+      <c r="E142" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E143" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2">
+        <v>959</v>
+      </c>
+      <c r="E144" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="2">
+        <v>847</v>
+      </c>
+      <c r="E146" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2">
+        <v>6860</v>
+      </c>
+      <c r="E147" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="2">
+        <v>4935</v>
+      </c>
+      <c r="E148" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4018</v>
+      </c>
+      <c r="E149" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1617</v>
+      </c>
+      <c r="E150" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2">
+        <v>357</v>
+      </c>
+      <c r="E151" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2">
+        <v>6734</v>
+      </c>
+      <c r="E152" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4781</v>
+      </c>
+      <c r="E153" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3388</v>
+      </c>
+      <c r="E154" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2317</v>
+      </c>
+      <c r="E155" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" s="2">
+        <v>63</v>
+      </c>
+      <c r="E156" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2">
+        <v>10073</v>
+      </c>
+      <c r="E157" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="2">
+        <v>7511</v>
+      </c>
+      <c r="E158" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2646</v>
+      </c>
+      <c r="E159" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2212</v>
+      </c>
+      <c r="E160" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2149</v>
+      </c>
+      <c r="E161" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E162" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2793</v>
+      </c>
+      <c r="E163" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2142</v>
+      </c>
+      <c r="E164" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1624</v>
+      </c>
+      <c r="E165" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="2">
+        <v>4487</v>
+      </c>
+      <c r="E166" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1526</v>
+      </c>
+      <c r="E167" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="2">
+        <v>6398</v>
+      </c>
+      <c r="E168" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2">
+        <v>6125</v>
+      </c>
+      <c r="E169" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="2">
+        <v>3850</v>
+      </c>
+      <c r="E170" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2891</v>
+      </c>
+      <c r="E171" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1652</v>
+      </c>
+      <c r="E172" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1505</v>
+      </c>
+      <c r="E173" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2436</v>
+      </c>
+      <c r="E174" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="2">
+        <v>609</v>
+      </c>
+      <c r="E175" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="2">
+        <v>7273</v>
+      </c>
+      <c r="E176" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="2">
+        <v>3472</v>
+      </c>
+      <c r="E177" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1568</v>
+      </c>
+      <c r="E178" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" s="2">
+        <v>6132</v>
+      </c>
+      <c r="E179" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2919</v>
+      </c>
+      <c r="E180" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2737</v>
+      </c>
+      <c r="E181" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1652</v>
+      </c>
+      <c r="E182" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1428</v>
+      </c>
+      <c r="E183" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="2">
+        <v>9772</v>
+      </c>
+      <c r="E184" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" s="2">
+        <v>8155</v>
+      </c>
+      <c r="E185" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2541</v>
+      </c>
+      <c r="E186" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2">
+        <v>9506</v>
+      </c>
+      <c r="E187" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="2">
+        <v>7693</v>
+      </c>
+      <c r="E188" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" s="2">
+        <v>700</v>
+      </c>
+      <c r="E189" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="2">
+        <v>609</v>
+      </c>
+      <c r="E190" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="2">
+        <v>434</v>
+      </c>
+      <c r="E191" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="2">
+        <v>280</v>
+      </c>
+      <c r="E192" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2">
+        <v>10304</v>
+      </c>
+      <c r="E193" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="2">
+        <v>490</v>
+      </c>
+      <c r="E194" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="2">
+        <v>168</v>
+      </c>
+      <c r="E195" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" s="2">
+        <v>7812</v>
+      </c>
+      <c r="E196" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="2">
+        <v>6909</v>
+      </c>
+      <c r="E197" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="2">
+        <v>3598</v>
+      </c>
+      <c r="E198" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="2">
+        <v>560</v>
+      </c>
+      <c r="E199" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="2">
+        <v>6433</v>
+      </c>
+      <c r="E200" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E201" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" s="2">
+        <v>8211</v>
+      </c>
+      <c r="E202" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>16</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" s="2">
+        <v>3339</v>
+      </c>
+      <c r="E203" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="2">
+        <v>3262</v>
+      </c>
+      <c r="E204" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" t="s">
+        <v>34</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2779</v>
+      </c>
+      <c r="E205" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2219</v>
+      </c>
+      <c r="E206" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="2">
+        <v>1281</v>
+      </c>
+      <c r="E207" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>31</v>
+      </c>
+      <c r="D208" s="2">
+        <v>945</v>
+      </c>
+      <c r="E208" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="2">
+        <v>518</v>
+      </c>
+      <c r="E209" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="2">
+        <v>469</v>
+      </c>
+      <c r="E210" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="2">
+        <v>9002</v>
+      </c>
+      <c r="E211" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="2">
+        <v>3976</v>
+      </c>
+      <c r="E212" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2">
+        <v>3192</v>
+      </c>
+      <c r="E213" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1407</v>
+      </c>
+      <c r="E214" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>31</v>
+      </c>
+      <c r="D215" s="2">
+        <v>4760</v>
+      </c>
+      <c r="E215" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2114</v>
+      </c>
+      <c r="E216" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>25</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" t="s">
+        <v>31</v>
+      </c>
+      <c r="D217" s="2">
+        <v>6146</v>
+      </c>
+      <c r="E217" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="2">
+        <v>4606</v>
+      </c>
+      <c r="E218" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="2">
+        <v>2268</v>
+      </c>
+      <c r="E219" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1638</v>
+      </c>
+      <c r="E220" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="2">
+        <v>497</v>
+      </c>
+      <c r="E221" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="2">
+        <v>4137</v>
+      </c>
+      <c r="E222" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="2">
+        <v>9051</v>
+      </c>
+      <c r="E223" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>25</v>
+      </c>
+      <c r="B224" t="s">
+        <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" s="2">
+        <v>7189</v>
+      </c>
+      <c r="E224" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="2">
+        <v>6454</v>
+      </c>
+      <c r="E225" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" s="2">
+        <v>3108</v>
+      </c>
+      <c r="E226" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2681</v>
+      </c>
+      <c r="E227" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>26</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1057</v>
+      </c>
+      <c r="E228" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>26</v>
+      </c>
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229" s="2">
+        <v>252</v>
+      </c>
+      <c r="E229" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>25</v>
+      </c>
+      <c r="B230" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" t="s">
+        <v>42</v>
+      </c>
+      <c r="D230" s="2">
+        <v>5236</v>
+      </c>
+      <c r="E230" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="2">
+        <v>3640</v>
+      </c>
+      <c r="E231" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>38</v>
+      </c>
+      <c r="D232" s="2">
+        <v>623</v>
+      </c>
+      <c r="E232" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>26</v>
+      </c>
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" s="2">
+        <v>56</v>
+      </c>
+      <c r="E233" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" s="2">
+        <v>6748</v>
+      </c>
+      <c r="E234" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="2">
+        <v>6391</v>
+      </c>
+      <c r="E235" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2226</v>
+      </c>
+      <c r="E236" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>38</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1638</v>
+      </c>
+      <c r="E237" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2">
+        <v>525</v>
+      </c>
+      <c r="E238" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" s="2">
+        <v>189</v>
+      </c>
+      <c r="E239" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="2">
+        <v>182</v>
+      </c>
+      <c r="E240" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>25</v>
+      </c>
+      <c r="B241" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="2">
+        <v>7483</v>
+      </c>
+      <c r="E241" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" s="2">
+        <v>6279</v>
+      </c>
+      <c r="E242" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>40</v>
+      </c>
+      <c r="D243" s="2">
+        <v>2919</v>
+      </c>
+      <c r="E243" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" s="2">
+        <v>2541</v>
+      </c>
+      <c r="E244" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="2">
+        <v>8435</v>
+      </c>
+      <c r="E245" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" s="2">
+        <v>6300</v>
+      </c>
+      <c r="E246" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>37</v>
+      </c>
+      <c r="D247" s="2">
+        <v>5775</v>
+      </c>
+      <c r="E247" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="2">
+        <v>2863</v>
+      </c>
+      <c r="E248" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>25</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" t="s">
+        <v>29</v>
+      </c>
+      <c r="D249" s="2">
+        <v>16184</v>
+      </c>
+      <c r="E249" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" t="s">
+        <v>30</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="2">
+        <v>7777</v>
+      </c>
+      <c r="E250" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" s="2">
+        <v>3339</v>
+      </c>
+      <c r="E251" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E252" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1463</v>
+      </c>
+      <c r="E253" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254" s="2">
+        <v>9198</v>
+      </c>
+      <c r="E254" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="2">
+        <v>7322</v>
+      </c>
+      <c r="E255" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="2">
+        <v>4802</v>
+      </c>
+      <c r="E256" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" t="s">
+        <v>17</v>
+      </c>
+      <c r="C257" t="s">
+        <v>34</v>
+      </c>
+      <c r="D257" s="2">
+        <v>630</v>
+      </c>
+      <c r="E257" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2">
+        <v>217</v>
+      </c>
+      <c r="E258" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>35</v>
+      </c>
+      <c r="B259" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" s="2">
+        <v>12950</v>
+      </c>
+      <c r="E259" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>37</v>
+      </c>
+      <c r="D260" s="2">
+        <v>9709</v>
+      </c>
+      <c r="E260" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" t="s">
+        <v>39</v>
+      </c>
+      <c r="D261" s="2">
+        <v>6370</v>
+      </c>
+      <c r="E261" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262" s="2">
+        <v>5439</v>
+      </c>
+      <c r="E262" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>35</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" s="2">
+        <v>4683</v>
+      </c>
+      <c r="E263" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>31</v>
+      </c>
+      <c r="D264" s="2">
+        <v>4319</v>
+      </c>
+      <c r="E264" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="2">
+        <v>9660</v>
+      </c>
+      <c r="E265" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>30</v>
+      </c>
+      <c r="C266" t="s">
+        <v>41</v>
+      </c>
+      <c r="D266" s="2">
+        <v>6832</v>
+      </c>
+      <c r="E266" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" s="2">
+        <v>6048</v>
+      </c>
+      <c r="E267" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>40</v>
+      </c>
+      <c r="D268" s="2">
+        <v>3059</v>
+      </c>
+      <c r="E268" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269" s="2">
+        <v>2135</v>
+      </c>
+      <c r="E269" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" t="s">
+        <v>42</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1561</v>
+      </c>
+      <c r="E270" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>35</v>
+      </c>
+      <c r="B271" t="s">
+        <v>30</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="2">
+        <v>4053</v>
+      </c>
+      <c r="E271" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="2">
+        <v>3829</v>
+      </c>
+      <c r="E272" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" t="s">
+        <v>29</v>
+      </c>
+      <c r="D273" s="2">
+        <v>11417</v>
+      </c>
+      <c r="E273" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="2">
+        <v>8813</v>
+      </c>
+      <c r="E274" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" s="2">
+        <v>7693</v>
+      </c>
+      <c r="E275" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276" t="s">
+        <v>39</v>
+      </c>
+      <c r="D276" s="2">
+        <v>6986</v>
+      </c>
+      <c r="E276" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="2">
+        <v>5075</v>
+      </c>
+      <c r="E277" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>39</v>
+      </c>
+      <c r="D278" s="2">
+        <v>2478</v>
+      </c>
+      <c r="E278" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" t="s">
+        <v>18</v>
+      </c>
+      <c r="D279" s="2">
+        <v>154</v>
+      </c>
+      <c r="E279" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280" s="2">
+        <v>2583</v>
+      </c>
+      <c r="E280" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" s="2">
+        <v>1281</v>
+      </c>
+      <c r="E281" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>36</v>
+      </c>
+      <c r="D282" s="2">
+        <v>238</v>
+      </c>
+      <c r="E282" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>34</v>
+      </c>
+      <c r="D283" s="2">
+        <v>6314</v>
+      </c>
+      <c r="E283" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2415</v>
+      </c>
+      <c r="E284" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>16</v>
+      </c>
+      <c r="B285" t="s">
+        <v>30</v>
+      </c>
+      <c r="C285" t="s">
+        <v>37</v>
+      </c>
+      <c r="D285" s="2">
+        <v>1442</v>
+      </c>
+      <c r="E285" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>26</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" s="2">
+        <v>553</v>
+      </c>
+      <c r="E286" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" t="s">
+        <v>22</v>
+      </c>
+      <c r="D287" s="2">
+        <v>5817</v>
+      </c>
+      <c r="E287" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>24</v>
+      </c>
+      <c r="D288" s="2">
+        <v>4991</v>
+      </c>
+      <c r="E288" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="2">
+        <v>6118</v>
+      </c>
+      <c r="E289" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>35</v>
+      </c>
+      <c r="B290" t="s">
+        <v>30</v>
+      </c>
+      <c r="C290" t="s">
+        <v>42</v>
+      </c>
+      <c r="D290" s="2">
+        <v>4991</v>
+      </c>
+      <c r="E290" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>41</v>
+      </c>
+      <c r="D291" s="2">
+        <v>2933</v>
+      </c>
+      <c r="E291" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2">
+        <v>2744</v>
+      </c>
+      <c r="E292" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" s="2">
+        <v>2408</v>
+      </c>
+      <c r="E293" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>42</v>
+      </c>
+      <c r="D294" s="2">
+        <v>6818</v>
+      </c>
+      <c r="E294" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>35</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>37</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2562</v>
+      </c>
+      <c r="E295" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" t="s">
+        <v>29</v>
+      </c>
+      <c r="D296" s="2">
+        <v>938</v>
+      </c>
+      <c r="E296" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="2">
+        <v>6111</v>
+      </c>
+      <c r="E297" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" t="s">
+        <v>20</v>
+      </c>
+      <c r="C298" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="2">
+        <v>5915</v>
+      </c>
+      <c r="E298" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2">
+        <v>3549</v>
+      </c>
+      <c r="E299" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" t="s">
+        <v>38</v>
+      </c>
+      <c r="D300" s="2">
+        <v>2989</v>
+      </c>
+      <c r="E300" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>42</v>
+      </c>
+      <c r="D301" s="2">
+        <v>5306</v>
+      </c>
+      <c r="E301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D301">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E301">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9350E074-6429-4CF2-9AB8-2D9C28D88C57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9350E074-6429-4CF2-9AB8-2D9C28D88C57}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E301</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janno\Desktop\Personal Projects\EDA-with-Microsoft-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C002FDCF-0E73-4210-8B6F-605637C09758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20D22E-FE3D-4C54-820C-ACEA2D4638B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{5E5F4ACB-23E7-43A8-9532-C0FFD3ED00A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{5E5F4ACB-23E7-43A8-9532-C0FFD3ED00A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="Sales by Country (Pivot)" sheetId="5" r:id="rId5"/>
     <sheet name="Top 5 Products $ per Unit" sheetId="7" r:id="rId6"/>
     <sheet name="Anomaly Detection " sheetId="8" r:id="rId7"/>
+    <sheet name="Best Salesperson by Country " sheetId="12" r:id="rId8"/>
+    <sheet name="Profit Analysis" sheetId="17" r:id="rId9"/>
+    <sheet name="Dynamic Country-level Report" sheetId="18" r:id="rId10"/>
+    <sheet name="Non-performing Products" sheetId="19" r:id="rId11"/>
+    <sheet name="Sheet17" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sales by Country (Formular)'!$D$1:$D$301</definedName>
@@ -35,17 +40,20 @@
     <definedName name="_xlchart.v1.8" hidden="1">'Anomaly Detection '!$O$2:$O$301</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'Anomaly Detection '!$O$1</definedName>
     <definedName name="_xlcn.WorksheetConnection_Book3.xlsxdata1" hidden="1">data[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Book3.xlsxdata21" hidden="1">data2</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
-    <pivotCache cacheId="39" r:id="rId9"/>
+    <pivotCache cacheId="69" r:id="rId13"/>
+    <pivotCache cacheId="369" r:id="rId14"/>
+    <pivotCache cacheId="375" r:id="rId15"/>
+    <pivotCache cacheId="378" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId17"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,6 +66,7 @@
       <x15:dataModel>
         <x15:modelTables>
           <x15:modelTable id="data" name="data" connection="WorksheetConnection_Book3.xlsx!data"/>
+          <x15:modelTable id="data2" name="data2" connection="WorksheetConnection_Book3.xlsx!data2"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -96,11 +105,20 @@
       </ext>
     </extLst>
   </connection>
+  <connection id="3" xr16:uid="{BC9B63AF-895A-4BC1-964D-789CED10639F}" name="WorksheetConnection_Book3.xlsx!data2" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="data2" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book3.xlsxdata21"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="75">
   <si>
     <t>Sales Person</t>
   </si>
@@ -273,19 +291,72 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Sales per unit</t>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t>Sum of Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick a Country </t>
+  </si>
+  <si>
+    <t>Number of Transactions</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Quick Summary</t>
+  </si>
+  <si>
+    <t>By Sales Person</t>
+  </si>
+  <si>
+    <t>Hit Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Profit </t>
+  </si>
+  <si>
+    <t>Profit %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -311,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,17 +391,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -362,12 +475,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -375,30 +501,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -408,13 +538,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -5322,21 +5509,40 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="JENNIFER ANNO-KUSI" refreshedDate="44872.675249305554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0B8755E7-B3E0-4E52-90A9-A924A0328C0C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="JENNIFER ANNO-KUSI" refreshedDate="44873.652668287039" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8704BCD2-43F0-4251-839D-7E9F32E9A2E7}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
+  <cacheFields count="4">
     <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="5">
+      <sharedItems count="22">
+        <s v="50% Dark Bites"/>
+        <s v="70% Dark Bites"/>
         <s v="85% Dark Bars"/>
+        <s v="99% Dark &amp; Pure"/>
         <s v="After Nines"/>
+        <s v="Almond Choco"/>
         <s v="Baker's Choco Chips"/>
+        <s v="Caramel Stuffed Bars"/>
+        <s v="Choco Coated Almonds"/>
+        <s v="Drinking Coco"/>
+        <s v="Eclairs"/>
+        <s v="Fruit &amp; Nut Bars"/>
+        <s v="Manuka Honey Choco"/>
+        <s v="Milk Bars"/>
+        <s v="Mint Chip Choco"/>
+        <s v="Orange Choco"/>
+        <s v="Organic Choco Syrup"/>
         <s v="Peanut Butter Cubes"/>
         <s v="Raspberry Choco"/>
+        <s v="Smooth Sliky Salty"/>
+        <s v="Spicy Special Slims"/>
+        <s v="White Choc"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Sales per unit]" caption="Sales per unit" numFmtId="0" hierarchy="7" level="32767"/>
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="14" level="32767"/>
+    <cacheField name="[Measures].[Sum of Units]" caption="Sum of Units" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[Measures].[Profit]" caption="Profit" numFmtId="0" hierarchy="24" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="10">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[data].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data].[Sales Person].[All]" allUniqueName="[data].[Sales Person].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[data].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data].[Geography].[All]" allUniqueName="[data].[Geography].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[data].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data].[Product].[All]" allUniqueName="[data].[Product].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
@@ -5347,6 +5553,150 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[data].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data].[Amount].[All]" allUniqueName="[data].[Amount].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[data].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data].[Units].[All]" allUniqueName="[data].[Units].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost per unit]" caption="Cost per unit" attribute="1" defaultMemberUniqueName="[data].[Cost per unit].[All]" allUniqueName="[data].[Cost per unit].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data].[Cost].[All]" allUniqueName="[data].[Cost].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data2].[Sales Person].[All]" allUniqueName="[data2].[Sales Person].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data2].[Geography].[All]" allUniqueName="[data2].[Geography].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data2].[Product].[All]" allUniqueName="[data2].[Product].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data2].[Amount].[All]" allUniqueName="[data2].[Amount].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data2].[Units].[All]" allUniqueName="[data2].[Units].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost per Unit]" caption="Cost per Unit" attribute="1" defaultMemberUniqueName="[data2].[Cost per Unit].[All]" allUniqueName="[data2].[Cost per Unit].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data2].[Cost].[All]" allUniqueName="[data2].[Cost].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Units]" caption="Sum of Units" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount 2]" caption="Sum of Amount 2" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost per Unit]" caption="Sum of Cost per Unit" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="12"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="13"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost 2]" caption="Sum of Cost 2" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Amount]" caption="Average of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Max of Amount]" caption="Max of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Min of Amount]" caption="Min of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Profit]" caption="Total Profit" measure="1" displayFolder="" measureGroup="data2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Profit]" caption="Profit" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data]" caption="__XL_Count data" measure="1" displayFolder="" measureGroup="data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data2]" caption="__XL_Count data2" measure="1" displayFolder="" measureGroup="data2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="data" uniqueName="[data]" caption="data"/>
+    <dimension name="data2" uniqueName="[data2]" caption="data2"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="data" caption="data"/>
+    <measureGroup name="data2" caption="data2"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="JENNIFER ANNO-KUSI" refreshedDate="44873.65267048611" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0B8755E7-B3E0-4E52-90A9-A924A0328C0C}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="1">
+    <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="5">
+        <s v="Baker's Choco Chips"/>
+        <s v="Caramel Stuffed Bars"/>
+        <s v="Choco Coated Almonds"/>
+        <s v="Organic Choco Syrup"/>
+        <s v="Peanut Butter Cubes"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[data].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data].[Sales Person].[All]" allUniqueName="[data].[Sales Person].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data].[Geography].[All]" allUniqueName="[data].[Geography].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data].[Product].[All]" allUniqueName="[data].[Product].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data].[Amount].[All]" allUniqueName="[data].[Amount].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data].[Units].[All]" allUniqueName="[data].[Units].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost per unit]" caption="Cost per unit" attribute="1" defaultMemberUniqueName="[data].[Cost per unit].[All]" allUniqueName="[data].[Cost per unit].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data].[Cost].[All]" allUniqueName="[data].[Cost].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data2].[Sales Person].[All]" allUniqueName="[data2].[Sales Person].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data2].[Geography].[All]" allUniqueName="[data2].[Geography].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data2].[Product].[All]" allUniqueName="[data2].[Product].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data2].[Amount].[All]" allUniqueName="[data2].[Amount].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data2].[Units].[All]" allUniqueName="[data2].[Units].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost per Unit]" caption="Cost per Unit" attribute="1" defaultMemberUniqueName="[data2].[Cost per Unit].[All]" allUniqueName="[data2].[Cost per Unit].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data2].[Cost].[All]" allUniqueName="[data2].[Cost].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
@@ -5361,24 +5711,229 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sales per unit]" caption="Sales per unit" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount 2]" caption="Sum of Amount 2" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost per Unit]" caption="Sum of Cost per Unit" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="12"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="13"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost 2]" caption="Sum of Cost 2" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Amount]" caption="Average of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Max of Amount]" caption="Max of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Min of Amount]" caption="Min of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Profit]" caption="Total Profit" measure="1" displayFolder="" measureGroup="data2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Profit]" caption="Profit" measure="1" displayFolder="" measureGroup="data" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data]" caption="__XL_Count data" measure="1" displayFolder="" measureGroup="data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data2]" caption="__XL_Count data2" measure="1" displayFolder="" measureGroup="data2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="data" uniqueName="[data]" caption="data"/>
+    <dimension name="data2" uniqueName="[data2]" caption="data2"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="data" caption="data"/>
+    <measureGroup name="data2" caption="data2"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="JENNIFER ANNO-KUSI" refreshedDate="44873.652717939818" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D107384-EF37-4133-B9C2-667A5F416B3C}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[data].[Product].[Product]" caption="Product" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="22">
+        <s v="50% Dark Bites"/>
+        <s v="70% Dark Bites"/>
+        <s v="85% Dark Bars"/>
+        <s v="99% Dark &amp; Pure"/>
+        <s v="After Nines"/>
+        <s v="Almond Choco"/>
+        <s v="Baker's Choco Chips"/>
+        <s v="Caramel Stuffed Bars"/>
+        <s v="Choco Coated Almonds"/>
+        <s v="Drinking Coco"/>
+        <s v="Eclairs"/>
+        <s v="Fruit &amp; Nut Bars"/>
+        <s v="Manuka Honey Choco"/>
+        <s v="Milk Bars"/>
+        <s v="Mint Chip Choco"/>
+        <s v="Orange Choco"/>
+        <s v="Organic Choco Syrup"/>
+        <s v="Peanut Butter Cubes"/>
+        <s v="Raspberry Choco"/>
+        <s v="Smooth Sliky Salty"/>
+        <s v="Spicy Special Slims"/>
+        <s v="White Choc"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="14" level="32767"/>
+    <cacheField name="[Measures].[Sum of Cost 2]" caption="Sum of Cost 2" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Profit]" caption="Profit" numFmtId="0" hierarchy="24" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[data].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data].[Sales Person].[All]" allUniqueName="[data].[Sales Person].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data].[Geography].[All]" allUniqueName="[data].[Geography].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data].[Product].[All]" allUniqueName="[data].[Product].[All]" dimensionUniqueName="[data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data].[Amount].[All]" allUniqueName="[data].[Amount].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data].[Units].[All]" allUniqueName="[data].[Units].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost per unit]" caption="Cost per unit" attribute="1" defaultMemberUniqueName="[data].[Cost per unit].[All]" allUniqueName="[data].[Cost per unit].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data].[Cost].[All]" allUniqueName="[data].[Cost].[All]" dimensionUniqueName="[data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[data2].[Sales Person].[All]" allUniqueName="[data2].[Sales Person].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Geography]" caption="Geography" attribute="1" defaultMemberUniqueName="[data2].[Geography].[All]" allUniqueName="[data2].[Geography].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[data2].[Product].[All]" allUniqueName="[data2].[Product].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[data2].[Amount].[All]" allUniqueName="[data2].[Amount].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Units]" caption="Units" attribute="1" defaultMemberUniqueName="[data2].[Units].[All]" allUniqueName="[data2].[Units].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost per Unit]" caption="Cost per Unit" attribute="1" defaultMemberUniqueName="[data2].[Cost per Unit].[All]" allUniqueName="[data2].[Cost per Unit].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data2].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[data2].[Cost].[All]" allUniqueName="[data2].[Cost].[All]" dimensionUniqueName="[data2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="1"/>
       </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Units]" caption="Sum of Units" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount 2]" caption="Sum of Amount 2" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost per Unit]" caption="Sum of Cost per Unit" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="12"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="data2" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="13"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost 2]" caption="Sum of Cost 2" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Amount]" caption="Average of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Max of Amount]" caption="Max of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Min of Amount]" caption="Min of Amount" measure="1" displayFolder="" measureGroup="data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Profit]" caption="Total Profit" measure="1" displayFolder="" measureGroup="data2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Profit]" caption="Profit" measure="1" displayFolder="" measureGroup="data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count data]" caption="__XL_Count data" measure="1" displayFolder="" measureGroup="data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data2]" caption="__XL_Count data2" measure="1" displayFolder="" measureGroup="data2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="2">
+  <dimensions count="3">
     <dimension name="data" uniqueName="[data]" caption="data"/>
+    <dimension name="data2" uniqueName="[data2]" caption="data2"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
   </dimensions>
-  <measureGroups count="1">
+  <measureGroups count="2">
     <measureGroup name="data" caption="data"/>
+    <measureGroup name="data2" caption="data2"/>
   </measureGroups>
-  <maps count="1">
+  <maps count="2">
     <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7494,7 +8049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75B2DFF8-0356-41D5-A65F-71EC419FECA2}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75B2DFF8-0356-41D5-A65F-71EC419FECA2}" name="PivotTable1" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -7612,59 +8167,59 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D30C0A9A-2BAC-4227-9493-1E5A8A76FA9A}" name="PivotTable3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D30C0A9A-2BAC-4227-9493-1E5A8A76FA9A}" name="PivotTable3" cacheId="375" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="5">
         <item x="0"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="6">
     <i>
-      <x v="4"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="10">
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -7675,10 +8230,12 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="count" id="1" iMeasureHier="7">
+    <filter fld="0" type="count" id="2" iMeasureHier="23">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <top10 val="5" filterVal="5"/>
@@ -7695,6 +8252,662 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
       <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Book3.xlsx!data">
+        <x15:activeTabTopLevelEntity name="[data]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A85FE4F-68AC-4B74-AACA-02926B50BC51}" name="PivotTable28" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E1:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84BE09AF-E778-440D-9EBB-6A321408172B}" name="PivotTable26" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="3" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C38D8BD8-2C15-4E58-A0BA-61AD729CC932}" name="PivotTable32" cacheId="378" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Amount" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Cost" fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[data]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71766E6F-C23F-42CE-9C68-AD9FD4E56964}" name="PivotTable34" cacheId="369" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Amount" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units" fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="21">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[data]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -7736,21 +8949,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}" name="data" displayName="data" ref="A1:E301" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:E301" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}" name="data" displayName="data" ref="A1:G301" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:G301" xr:uid="{9B3492E3-EBCB-476B-99DC-0E0EAEF0C03D}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A6515D10-5DFD-4ABA-9E39-EDDAB68DC7AF}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{7579BDDE-55C1-47CB-8E6A-562958650110}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{D80F9F01-54B8-43D5-A3A2-FC5812813FEF}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{6BF95C2F-66F5-4CF2-AD3D-A1139DCDBD8E}" name="Amount" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{30D824B3-AD7D-4E0E-B28E-17310FC0AC7A}" name="Units" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6BF95C2F-66F5-4CF2-AD3D-A1139DCDBD8E}" name="Amount" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{30D824B3-AD7D-4E0E-B28E-17310FC0AC7A}" name="Units" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AEC28A21-5DE6-46B1-B20A-6D9B0EA29422}" name="Cost per unit" dataDxfId="9">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{70955518-A0BF-4A4C-8584-2560C242CB43}" name="Cost" dataDxfId="8">
+      <calculatedColumnFormula>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE49A5EA-C4A5-4074-ACD7-5977CC4A33D8}" name="data3" displayName="data3" ref="A1:E301" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2C16718-0635-4840-A88C-F0F387A2CC86}" name="products7" displayName="products7" ref="I1:J23" totalsRowShown="0">
+  <autoFilter ref="I1:J23" xr:uid="{A2C16718-0635-4840-A88C-F0F387A2CC86}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D774B1EF-BB3E-4CAF-A982-8C93DA55B7E1}" name="Product"/>
+    <tableColumn id="2" xr3:uid="{E98B872B-90F3-46DB-8E01-A27B7FF16B22}" name="Cost per unit" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE49A5EA-C4A5-4074-ACD7-5977CC4A33D8}" name="data3" displayName="data3" ref="A1:E301" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:E301" xr:uid="{AE49A5EA-C4A5-4074-ACD7-5977CC4A33D8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
     <sortCondition descending="1" ref="E1:E301"/>
@@ -7759,22 +8989,22 @@
     <tableColumn id="1" xr3:uid="{1A5FD07E-A84C-4E9B-8B0B-CED073F7CF18}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{1510BFE9-AA46-4D84-8FC0-00B69FFA3E37}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{C141A14C-F92D-40C3-87A0-8A986F83C10E}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{7C669E56-6034-4110-9AF1-9B2C8CE62E9C}" name="Amount" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AD849EE4-6F49-4141-8C43-48F92A09AC13}" name="Units" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7C669E56-6034-4110-9AF1-9B2C8CE62E9C}" name="Amount" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AD849EE4-6F49-4141-8C43-48F92A09AC13}" name="Units" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B70D2275-E33A-4777-9B26-97CE3954A5DD}" name="data4" displayName="data4" ref="L1:P301" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B70D2275-E33A-4777-9B26-97CE3954A5DD}" name="data4" displayName="data4" ref="L1:P301" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="L1:P301" xr:uid="{B70D2275-E33A-4777-9B26-97CE3954A5DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4724A38E-4E39-446A-9F57-0203298447FA}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{4C0F7A08-C436-4032-92F2-912B2DE20290}" name="Geography"/>
     <tableColumn id="3" xr3:uid="{E34BCED1-512E-4EAC-9C03-EAEC5739A61D}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{85B23DE5-55D3-4C11-95E8-8ED65DB0A10F}" name="Amount" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{F803D9CC-4EC6-4209-8D85-270B320EC2A2}" name="Units" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{85B23DE5-55D3-4C11-95E8-8ED65DB0A10F}" name="Amount" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F803D9CC-4EC6-4209-8D85-270B320EC2A2}" name="Units" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8077,10 +9307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6411E-158F-4956-9AEC-3C376E7C48D6}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection sqref="A1:E301"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8090,9 +9320,12 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8108,8 +9341,20 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8125,8 +9370,22 @@
       <c r="E2" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G2">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1651.8600000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="27">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8142,8 +9401,22 @@
       <c r="E3" s="3">
         <v>459</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G3">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3970.3500000000004</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="27">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8159,8 +9432,22 @@
       <c r="E4" s="3">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G4">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1746.3600000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="27">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8176,8 +9463,22 @@
       <c r="E5" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G5">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1863.36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="27">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8193,8 +9494,22 @@
       <c r="E6" s="3">
         <v>414</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G6">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5444.1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="27">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8210,8 +9525,22 @@
       <c r="E7" s="3">
         <v>432</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G7">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5343.8399999999992</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -8227,8 +9556,22 @@
       <c r="E8" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G8">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>312.66000000000003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="27">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8244,8 +9587,22 @@
       <c r="E9" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G9">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2051.6999999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="27">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8261,8 +9618,22 @@
       <c r="E10" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G10">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>877.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="27">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -8278,8 +9649,22 @@
       <c r="E11" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G11">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>140.39999999999998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -8295,8 +9680,22 @@
       <c r="E12" s="3">
         <v>462</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G12">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>6075.3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -8312,8 +9711,22 @@
       <c r="E13" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G13">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>447.84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="27">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -8329,8 +9742,22 @@
       <c r="E14" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G14">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1054.8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8346,8 +9773,22 @@
       <c r="E15" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G15">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>503.82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="27">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8363,8 +9804,22 @@
       <c r="E16" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G16">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3077.1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8380,8 +9835,22 @@
       <c r="E17" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G17">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>472.56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="27">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -8397,8 +9866,22 @@
       <c r="E18" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G18">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>503.73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="27">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -8414,8 +9897,22 @@
       <c r="E19" s="3">
         <v>339</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G19">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3600.18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="27">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -8431,8 +9928,22 @@
       <c r="E20" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G20">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1406.8799999999999</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="27">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8448,8 +9959,22 @@
       <c r="E21" s="3">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G21">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1720.4399999999998</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="27">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -8465,8 +9990,22 @@
       <c r="E22" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G22">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>584.1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="27">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -8482,8 +10021,22 @@
       <c r="E23" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G23">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1518.66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="27">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -8499,8 +10052,16 @@
       <c r="E24" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G24">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1377.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -8516,8 +10077,16 @@
       <c r="E25" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G25">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1558.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -8533,8 +10102,16 @@
       <c r="E26" s="3">
         <v>186</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G26">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2181.7800000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -8550,8 +10127,16 @@
       <c r="E27" s="3">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G27">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2155.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8567,8 +10152,16 @@
       <c r="E28" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G28">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1476.7199999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -8584,8 +10177,16 @@
       <c r="E29" s="3">
         <v>195</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G29">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2070.8999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -8601,8 +10202,16 @@
       <c r="E30" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G30">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>97.350000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -8618,8 +10227,16 @@
       <c r="E31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G31">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>194.70000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -8635,8 +10252,16 @@
       <c r="E32" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G32">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>506.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -8652,8 +10277,16 @@
       <c r="E33" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G33">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -8669,8 +10302,16 @@
       <c r="E34" s="3">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G34">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2651.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -8686,8 +10327,16 @@
       <c r="E35" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G35">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>117.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -8703,8 +10352,16 @@
       <c r="E36" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G36">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>842.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -8720,8 +10377,16 @@
       <c r="E37" s="3">
         <v>282</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G37">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4717.8599999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -8737,8 +10402,16 @@
       <c r="E38" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G38">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1494.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -8754,8 +10427,16 @@
       <c r="E39" s="3">
         <v>405</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G39">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3559.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -8771,8 +10452,16 @@
       <c r="E40" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G40">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>648.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -8788,8 +10477,16 @@
       <c r="E41" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G41">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2258.5500000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -8805,8 +10502,16 @@
       <c r="E42" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G42">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>351.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -8822,8 +10527,16 @@
       <c r="E43" s="3">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G43">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>992.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -8839,8 +10552,16 @@
       <c r="E44" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G44">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>175.95000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -8856,8 +10577,16 @@
       <c r="E45" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G45">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2983.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -8873,8 +10602,16 @@
       <c r="E46" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G46">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>137.51999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -8890,8 +10627,16 @@
       <c r="E47" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G47">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1226.6100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -8907,8 +10652,16 @@
       <c r="E48" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G48">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>181.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -8924,8 +10677,16 @@
       <c r="E49" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G49">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>316.43999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -8941,8 +10702,16 @@
       <c r="E50" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G50">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -8958,8 +10727,16 @@
       <c r="E51" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G51">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>485.15999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -8975,8 +10752,16 @@
       <c r="E52" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G52">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>342.80999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -8992,8 +10777,16 @@
       <c r="E53" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -9009,8 +10802,16 @@
       <c r="E54" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G54">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -9026,8 +10827,16 @@
       <c r="E55" s="3">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G55">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1899.5400000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -9043,8 +10852,16 @@
       <c r="E56" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G56">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>643.77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -9060,8 +10877,16 @@
       <c r="E57" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G57">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -9077,8 +10902,16 @@
       <c r="E58" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G58">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>121.28999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -9094,8 +10927,16 @@
       <c r="E59" s="3">
         <v>504</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G59">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4359.6000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -9111,8 +10952,16 @@
       <c r="E60" s="3">
         <v>273</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G60">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1954.68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -9128,8 +10977,16 @@
       <c r="E61" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G61">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>277.92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -9145,8 +11002,16 @@
       <c r="E62" s="3">
         <v>207</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G62">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3463.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -9162,8 +11027,16 @@
       <c r="E63" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G63">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>77.850000000000009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -9179,8 +11052,16 @@
       <c r="E64" s="3">
         <v>261</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G64">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1693.89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -9196,8 +11077,16 @@
       <c r="E65" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G65">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>52.739999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -9213,8 +11102,16 @@
       <c r="E66" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G66">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>351.90000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -9230,8 +11127,16 @@
       <c r="E67" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G67">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1465.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -9247,8 +11152,16 @@
       <c r="E68" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G68">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>345.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -9264,8 +11177,16 @@
       <c r="E69" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G69">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -9281,8 +11202,16 @@
       <c r="E70" s="3">
         <v>162</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G70">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1237.6799999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -9298,8 +11227,16 @@
       <c r="E71" s="3">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G71">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1489.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -9315,8 +11252,16 @@
       <c r="E72" s="3">
         <v>525</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G72">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>6142.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -9332,8 +11277,16 @@
       <c r="E73" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G73">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>593.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -9349,8 +11302,16 @@
       <c r="E74" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G74">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1557.0000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -9366,8 +11327,16 @@
       <c r="E75" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G75">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5225.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -9383,8 +11352,16 @@
       <c r="E76" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G76">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>730.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -9400,8 +11377,16 @@
       <c r="E77" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G77">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1070.8500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -9417,8 +11402,16 @@
       <c r="E78" s="3">
         <v>309</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G78">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3207.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -9434,8 +11427,16 @@
       <c r="E79" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G79">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>485.15999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -9451,8 +11452,16 @@
       <c r="E80" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G80">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>890.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -9468,8 +11477,16 @@
       <c r="E81" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G81">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2357.73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -9485,8 +11502,16 @@
       <c r="E82" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G82">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1215.9000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -9502,8 +11527,16 @@
       <c r="E83" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G83">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>475.83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -9519,8 +11552,16 @@
       <c r="E84" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G84">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>512.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -9536,8 +11577,16 @@
       <c r="E85" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G85">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1805.1299999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -9553,8 +11602,16 @@
       <c r="E86" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G86">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1147.5899999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -9570,8 +11627,16 @@
       <c r="E87" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G87">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1355.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -9587,8 +11652,16 @@
       <c r="E88" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G88">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>160.44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -9604,8 +11677,16 @@
       <c r="E89" s="3">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G89">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1681.5600000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -9621,8 +11702,16 @@
       <c r="E90" s="3">
         <v>228</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G90">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -9638,8 +11727,16 @@
       <c r="E91" s="3">
         <v>342</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G91">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2448.7200000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -9655,8 +11752,16 @@
       <c r="E92" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G92">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>503.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -9672,8 +11777,16 @@
       <c r="E93" s="3">
         <v>216</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G93">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2242.0800000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -9689,8 +11802,16 @@
       <c r="E94" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G94">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>302.39999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -9706,8 +11827,16 @@
       <c r="E95" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G95">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>986.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -9723,8 +11852,16 @@
       <c r="E96" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G96">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>603.57000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -9740,8 +11877,16 @@
       <c r="E97" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G97">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2051.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -9757,8 +11902,16 @@
       <c r="E98" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G98">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -9774,8 +11927,16 @@
       <c r="E99" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G99">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>137.51999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -9791,8 +11952,16 @@
       <c r="E100" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G100">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2024.1000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -9808,8 +11977,16 @@
       <c r="E101" s="3">
         <v>312</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G101">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3238.5600000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -9825,8 +12002,16 @@
       <c r="E102" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G102">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -9842,8 +12027,16 @@
       <c r="E103" s="3">
         <v>519</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G103">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>8682.8700000000008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -9859,8 +12052,16 @@
       <c r="E104" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -9876,8 +12077,16 @@
       <c r="E105" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G105">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>106.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -9893,8 +12102,16 @@
       <c r="E106" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G106">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1113.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -9910,8 +12127,16 @@
       <c r="E107" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G107">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1262.4000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -9927,8 +12152,16 @@
       <c r="E108" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G108">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>184.58999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -9944,8 +12177,16 @@
       <c r="E109" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G109">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>268.79999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -9961,8 +12202,16 @@
       <c r="E110" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G110">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1204.56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -9978,8 +12227,16 @@
       <c r="E111" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G111">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1202.8800000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -9995,8 +12252,16 @@
       <c r="E112" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G112">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>285.59999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -10012,8 +12277,16 @@
       <c r="E113" s="3">
         <v>192</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G113">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1466.8799999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -10029,8 +12302,16 @@
       <c r="E114" s="3">
         <v>225</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G114">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2632.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -10046,8 +12327,16 @@
       <c r="E115" s="3">
         <v>456</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G115">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2553.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -10063,8 +12352,16 @@
       <c r="E116" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G116">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1222.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -10080,8 +12377,16 @@
       <c r="E117" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G117">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>570.24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -10097,8 +12402,16 @@
       <c r="E118" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G118">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>659.93999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -10114,8 +12427,16 @@
       <c r="E119" s="3">
         <v>252</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G119">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3651.48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -10131,8 +12452,16 @@
       <c r="E120" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G120">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>892.86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -10148,8 +12477,16 @@
       <c r="E121" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G121">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1183.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -10165,8 +12502,16 @@
       <c r="E122" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G122">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3477.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -10182,8 +12527,16 @@
       <c r="E123" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G123">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1211.76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -10199,8 +12552,16 @@
       <c r="E124" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G124">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2158.17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -10216,8 +12577,16 @@
       <c r="E125" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G125">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -10233,8 +12602,16 @@
       <c r="E126" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G126">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1669.9499999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -10250,8 +12627,16 @@
       <c r="E127" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G127">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>566.57999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -10267,8 +12652,16 @@
       <c r="E128" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G128">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>737.09999999999991</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -10284,8 +12677,16 @@
       <c r="E129" s="3">
         <v>252</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G129">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1804.32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -10301,8 +12702,16 @@
       <c r="E130" s="3">
         <v>303</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G130">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2620.9500000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -10318,8 +12727,16 @@
       <c r="E131" s="3">
         <v>246</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G131">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>765.06</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -10335,8 +12752,16 @@
       <c r="E132" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G132">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>820.68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -10352,8 +12777,16 @@
       <c r="E133" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G133">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>121.28999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -10369,8 +12802,16 @@
       <c r="E134" s="3">
         <v>348</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G134">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1082.28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -10386,8 +12827,16 @@
       <c r="E135" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G135">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>593.76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -10403,8 +12852,16 @@
       <c r="E136" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G136">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>732.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -10420,8 +12877,16 @@
       <c r="E137" s="3">
         <v>258</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G137">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2678.0400000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -10437,8 +12902,16 @@
       <c r="E138" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G138">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -10454,8 +12927,16 @@
       <c r="E139" s="3">
         <v>213</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G139">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1842.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -10471,8 +12952,16 @@
       <c r="E140" s="3">
         <v>357</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G140">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2556.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -10488,8 +12977,16 @@
       <c r="E141" s="3">
         <v>207</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G141">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2459.1600000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -10505,8 +13002,16 @@
       <c r="E142" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G142">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2173.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -10522,8 +13027,16 @@
       <c r="E143" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G143">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1142.3999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -10539,8 +13052,16 @@
       <c r="E144" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G144">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>351.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -10556,8 +13077,16 @@
       <c r="E145" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G145">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2152.3799999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -10573,8 +13102,16 @@
       <c r="E146" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G146">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>625.11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -10590,8 +13127,16 @@
       <c r="E147" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G147">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4758.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -10607,8 +13152,16 @@
       <c r="E148" s="3">
         <v>378</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G148">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2706.48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -10624,8 +13177,16 @@
       <c r="E149" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G149">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -10641,8 +13202,16 @@
       <c r="E150" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G150">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1028.4299999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -10658,8 +13227,16 @@
       <c r="E151" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G151">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -10675,8 +13252,16 @@
       <c r="E152" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G152">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1558.62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -10692,8 +13277,16 @@
       <c r="E153" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G153">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>946.80000000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -10709,8 +13302,16 @@
       <c r="E154" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G154">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>410.34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -10726,8 +13327,16 @@
       <c r="E155" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G155">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>966.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -10743,8 +13352,16 @@
       <c r="E156" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G156">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>939.32999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -10760,8 +13377,16 @@
       <c r="E157" s="3">
         <v>459</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G157">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4764.42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -10777,8 +13402,16 @@
       <c r="E158" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G158">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2357.73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -10794,8 +13427,16 @@
       <c r="E159" s="3">
         <v>366</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G159">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5303.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -10811,8 +13452,16 @@
       <c r="E160" s="3">
         <v>324</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G160">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2319.84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -10828,8 +13477,16 @@
       <c r="E161" s="3">
         <v>243</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G161">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2850.3900000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -10845,8 +13502,16 @@
       <c r="E162" s="3">
         <v>213</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G162">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -10862,8 +13527,16 @@
       <c r="E163" s="3">
         <v>447</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G163">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>6477.03</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -10879,8 +13552,16 @@
       <c r="E164" s="3">
         <v>297</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G164">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2771.01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -10896,8 +13577,16 @@
       <c r="E165" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G165">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>237.32999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -10913,8 +13602,16 @@
       <c r="E166" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G166">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>486.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -10930,8 +13627,16 @@
       <c r="E167" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G167">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>371.09999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -10947,8 +13652,16 @@
       <c r="E168" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G168">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1145.19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -10964,8 +13677,16 @@
       <c r="E169" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G169">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1966.83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -10981,8 +13702,16 @@
       <c r="E170" s="3">
         <v>306</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G170">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3785.22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -10998,8 +13727,16 @@
       <c r="E171" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G171">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>191.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -11015,8 +13752,16 @@
       <c r="E172" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G172">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1833.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -11032,8 +13777,16 @@
       <c r="E173" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G173">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1150.4099999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -11049,8 +13802,16 @@
       <c r="E174" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G174">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -11066,8 +13827,16 @@
       <c r="E175" s="3">
         <v>219</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G175">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1925.0099999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -11083,8 +13852,16 @@
       <c r="E176" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G176">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1377.57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -11100,8 +13877,16 @@
       <c r="E177" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G177">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1306.26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -11117,8 +13902,16 @@
       <c r="E178" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G178">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>253.47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -11134,8 +13927,16 @@
       <c r="E179" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G179">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1425.6000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -11151,8 +13952,16 @@
       <c r="E180" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G180">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -11168,8 +13977,16 @@
       <c r="E181" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G181">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3412.92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -11185,8 +14002,16 @@
       <c r="E182" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G182">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1147.5899999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -11202,8 +14027,16 @@
       <c r="E183" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G183">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>280.26000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -11219,8 +14052,16 @@
       <c r="E184" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G184">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>991.19999999999993</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -11236,8 +14077,16 @@
       <c r="E185" s="3">
         <v>171</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G185">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>957.59999999999991</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -11253,8 +14102,16 @@
       <c r="E186" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G186">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1558.56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -11270,8 +14127,16 @@
       <c r="E187" s="3">
         <v>276</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G187">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3229.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -11287,8 +14152,16 @@
       <c r="E188" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G188">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>251.99999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -11304,8 +14177,16 @@
       <c r="E189" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G189">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>322.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -11321,8 +14202,16 @@
       <c r="E190" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G190">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2961.21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -11338,8 +14227,16 @@
       <c r="E191" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G191">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>587.79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -11355,8 +14252,16 @@
       <c r="E192" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G192">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1319.8799999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -11372,8 +14277,16 @@
       <c r="E193" s="3">
         <v>195</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G193">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1905.1499999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -11389,8 +14302,16 @@
       <c r="E194" s="3">
         <v>369</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G194">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4317.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>27</v>
       </c>
@@ -11406,8 +14327,16 @@
       <c r="E195" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G195">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>552.30000000000007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -11423,8 +14352,16 @@
       <c r="E196" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G196">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1173.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -11440,8 +14377,16 @@
       <c r="E197" s="3">
         <v>246</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G197">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1377.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -11457,8 +14402,16 @@
       <c r="E198" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G198">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>541.14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -11474,8 +14427,16 @@
       <c r="E199" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G199">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1173.69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -11491,8 +14452,16 @@
       <c r="E200" s="3">
         <v>372</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G200">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3634.44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -11508,8 +14477,16 @@
       <c r="E201" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G201">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1529.4599999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -11525,8 +14502,16 @@
       <c r="E202" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G202">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>726.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -11542,8 +14527,16 @@
       <c r="E203" s="3">
         <v>225</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G203">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1977.7499999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -11559,8 +14552,16 @@
       <c r="E204" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G204">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1521.45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -11576,8 +14577,16 @@
       <c r="E205" s="3">
         <v>225</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G205">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2335.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -11593,8 +14602,16 @@
       <c r="E206" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G206">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>631.79999999999995</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -11610,8 +14627,16 @@
       <c r="E207" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G207">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -11627,8 +14652,16 @@
       <c r="E208" s="3">
         <v>171</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G208">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>849.87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -11644,8 +14677,16 @@
       <c r="E209" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G209">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1661.31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -11661,8 +14702,16 @@
       <c r="E210" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G210">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1746.8999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -11678,8 +14727,16 @@
       <c r="E211" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G211">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>912.87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11695,8 +14752,16 @@
       <c r="E212" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G212">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>276.15000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -11712,8 +14777,16 @@
       <c r="E213" s="3">
         <v>207</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G213">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2022.3899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -11729,8 +14802,16 @@
       <c r="E214" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G214">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1019.52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>25</v>
       </c>
@@ -11746,8 +14827,16 @@
       <c r="E215" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G215">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>791.37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -11763,8 +14852,16 @@
       <c r="E216" s="3">
         <v>306</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G216">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1520.82</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -11780,8 +14877,16 @@
       <c r="E217" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G217">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -11797,8 +14902,16 @@
       <c r="E218" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G218">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>35.64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -11814,8 +14927,16 @@
       <c r="E219" s="3">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G219">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3312.54</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>25</v>
       </c>
@@ -11831,8 +14952,16 @@
       <c r="E220" s="3">
         <v>249</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G220">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1611.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -11848,8 +14977,16 @@
       <c r="E221" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G221">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>659.24999999999989</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -11865,8 +15002,16 @@
       <c r="E222" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G222">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1634.8500000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -11882,8 +15027,16 @@
       <c r="E223" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G223">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>752.55000000000007</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -11899,8 +15052,16 @@
       <c r="E224" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G224">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2521.2600000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -11916,8 +15077,16 @@
       <c r="E225" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G225">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>422.28000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -11933,8 +15102,16 @@
       <c r="E226" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G226">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>298.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -11950,8 +15127,16 @@
       <c r="E227" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G227">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>506.22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -11967,8 +15152,16 @@
       <c r="E228" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G228">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>825.93000000000006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -11984,8 +15177,16 @@
       <c r="E229" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G229">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>467.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -12001,8 +15202,16 @@
       <c r="E230" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G230">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -12018,8 +15227,16 @@
       <c r="E231" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G231">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -12035,8 +15252,16 @@
       <c r="E232" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G232">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>276.15000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -12052,8 +15277,16 @@
       <c r="E233" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G233">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -12069,8 +15302,16 @@
       <c r="E234" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G234">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1667.52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -12086,8 +15327,16 @@
       <c r="E235" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G235">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>279.89999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -12103,8 +15352,16 @@
       <c r="E236" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G236">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>487.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -12120,8 +15377,16 @@
       <c r="E237" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G237">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>501.90000000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -12137,8 +15402,16 @@
       <c r="E238" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G238">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1283.52</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -12154,8 +15427,16 @@
       <c r="E239" s="3">
         <v>306</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G239">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>5119.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -12171,8 +15452,16 @@
       <c r="E240" s="3">
         <v>402</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G240">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4775.76</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -12188,8 +15477,16 @@
       <c r="E241" s="3">
         <v>327</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G241">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3394.26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -12205,8 +15502,16 @@
       <c r="E242" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G242">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1555.89</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -12222,8 +15527,16 @@
       <c r="E243" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.7</v>
+      </c>
+      <c r="G243">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1123.1999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -12239,8 +15552,16 @@
       <c r="E244" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.47</v>
+      </c>
+      <c r="G244">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>174.69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -12256,8 +15577,16 @@
       <c r="E245" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G245">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>554.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -12273,8 +15602,16 @@
       <c r="E246" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G246">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1076.1899999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>35</v>
       </c>
@@ -12290,8 +15627,16 @@
       <c r="E247" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G247">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -12307,8 +15652,16 @@
       <c r="E248" s="3">
         <v>363</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G248">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3855.0599999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>35</v>
       </c>
@@ -12324,8 +15677,16 @@
       <c r="E249" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G249">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>270.57</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -12341,8 +15702,16 @@
       <c r="E250" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G250">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>466.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -12358,8 +15727,16 @@
       <c r="E251" s="3">
         <v>303</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G251">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>942.32999999999993</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -12375,8 +15752,16 @@
       <c r="E252" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G252">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2989.44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -12392,8 +15777,16 @@
       <c r="E253" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G253">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>699.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -12409,8 +15802,16 @@
       <c r="E254" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G254">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>225.81</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>16</v>
       </c>
@@ -12426,8 +15827,16 @@
       <c r="E255" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.65</v>
+      </c>
+      <c r="G255">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1063.95</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -12443,8 +15852,16 @@
       <c r="E256" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G256">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>427.68</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>25</v>
       </c>
@@ -12460,8 +15877,16 @@
       <c r="E257" s="3">
         <v>237</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G257">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2315.4899999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -12477,8 +15902,16 @@
       <c r="E258" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.33</v>
+      </c>
+      <c r="G258">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1875.33</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -12494,8 +15927,16 @@
       <c r="E259" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G259">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>149.28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>25</v>
       </c>
@@ -12511,8 +15952,16 @@
       <c r="E260" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G260">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>820.68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -12528,8 +15977,16 @@
       <c r="E261" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G261">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -12545,8 +16002,16 @@
       <c r="E262" s="3">
         <v>312</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G262">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4520.88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -12562,8 +16027,16 @@
       <c r="E263" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.38</v>
+      </c>
+      <c r="G263">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1058.76</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -12579,8 +16052,16 @@
       <c r="E264" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9</v>
+      </c>
+      <c r="G264">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -12596,8 +16077,16 @@
       <c r="E265" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G265">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>759.33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -12613,8 +16102,16 @@
       <c r="E266" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G266">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>756.36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -12630,8 +16127,16 @@
       <c r="E267" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G267">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>238.56</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -12647,8 +16152,16 @@
       <c r="E268" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G268">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>281.52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -12664,8 +16177,16 @@
       <c r="E269" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G269">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>492.66</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -12681,8 +16202,16 @@
       <c r="E270" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>10.62</v>
+      </c>
+      <c r="G270">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2867.3999999999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -12698,8 +16227,16 @@
       <c r="E271" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G271">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>973.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>26</v>
       </c>
@@ -12715,8 +16252,16 @@
       <c r="E272" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G272">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>492.66</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -12732,8 +16277,16 @@
       <c r="E273" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G273">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>902.16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -12749,8 +16302,16 @@
       <c r="E274" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G274">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>33.599999999999994</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -12766,8 +16327,16 @@
       <c r="E275" s="3">
         <v>276</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G275">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>3237.48</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>27</v>
       </c>
@@ -12783,8 +16352,16 @@
       <c r="E276" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>3.11</v>
+      </c>
+      <c r="G276">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>289.22999999999996</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -12800,8 +16377,16 @@
       <c r="E277" s="3">
         <v>246</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G277">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1424.34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -12817,8 +16402,16 @@
       <c r="E278" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>4.97</v>
+      </c>
+      <c r="G278">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -12834,8 +16427,16 @@
       <c r="E279" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G279">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1053.99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -12851,8 +16452,16 @@
       <c r="E280" s="3">
         <v>246</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G280">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1424.34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -12868,8 +16477,16 @@
       <c r="E281" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.64</v>
+      </c>
+      <c r="G281">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>916.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -12885,8 +16502,16 @@
       <c r="E282" s="3">
         <v>348</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G282">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2014.92</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -12902,8 +16527,16 @@
       <c r="E283" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G283">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>817.74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -12919,8 +16552,16 @@
       <c r="E284" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G284">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1782.27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -12936,8 +16577,16 @@
       <c r="E285" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G285">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>591.75</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>35</v>
       </c>
@@ -12953,8 +16602,16 @@
       <c r="E286" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G286">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1496.88</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -12970,8 +16627,16 @@
       <c r="E287" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G287">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>515.52</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -12987,8 +16652,16 @@
       <c r="E288" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G288">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>966.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>35</v>
       </c>
@@ -13004,8 +16677,16 @@
       <c r="E289" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>9.77</v>
+      </c>
+      <c r="G289">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>234.48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -13021,8 +16702,16 @@
       <c r="E290" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.79</v>
+      </c>
+      <c r="G290">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>677.43</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -13038,8 +16727,16 @@
       <c r="E291" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>7.16</v>
+      </c>
+      <c r="G291">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>365.16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -13055,8 +16752,16 @@
       <c r="E292" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>6.49</v>
+      </c>
+      <c r="G292">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>233.64000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -13072,8 +16777,16 @@
       <c r="E293" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>16.73</v>
+      </c>
+      <c r="G293">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2409.12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -13089,8 +16802,16 @@
       <c r="E294" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G294">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1499.1000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -13106,8 +16827,16 @@
       <c r="E295" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>14.49</v>
+      </c>
+      <c r="G295">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>782.46</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -13123,8 +16852,16 @@
       <c r="E296" s="3">
         <v>333</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G296">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2927.0699999999997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -13140,8 +16877,16 @@
       <c r="E297" s="3">
         <v>366</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.88</v>
+      </c>
+      <c r="G297">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>4348.08</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -13157,8 +16902,16 @@
       <c r="E298" s="3">
         <v>303</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>5.6</v>
+      </c>
+      <c r="G298">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1696.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -13174,8 +16927,16 @@
       <c r="E299" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>12.37</v>
+      </c>
+      <c r="G299">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1558.62</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -13191,8 +16952,16 @@
       <c r="E300" s="3">
         <v>231</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>11.73</v>
+      </c>
+      <c r="G300">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>2709.63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -13208,12 +16977,1132 @@
       <c r="E301" s="3">
         <v>102</v>
       </c>
+      <c r="F301">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[Product]],products7[Product],products7[Cost per unit])</f>
+        <v>13.15</v>
+      </c>
+      <c r="G301">
+        <f>data[[#This Row],[Units]]*data[[#This Row],[Cost per unit]]</f>
+        <v>1341.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48837D62-70C7-456E-85FE-3A75C196F925}">
+  <dimension ref="A2:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13">
+        <f>COUNTIFS(data[Geography],B2)</f>
+        <v>50</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F7,data[Geography],B2)</f>
+        <v>23709</v>
+      </c>
+      <c r="H7" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F7,data[Geography],$B$2)</f>
+        <v>909</v>
+      </c>
+      <c r="I7" s="38">
+        <f>IF(G7&gt;12000,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F8,data[Geography],$B$2)</f>
+        <v>5019</v>
+      </c>
+      <c r="H8" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F8,data[Geography],$B$2)</f>
+        <v>150</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" ref="I8:I16" si="0">IF(G8&gt;12000,1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F9,data[Geography],$B$2)</f>
+        <v>39242</v>
+      </c>
+      <c r="H9" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F9,data[Geography],$B$2)</f>
+        <v>1482</v>
+      </c>
+      <c r="I9" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="34">
+        <f>SUMIFS(data[Amount],data[Geography],B2)</f>
+        <v>237944</v>
+      </c>
+      <c r="C10" s="34">
+        <f>AVERAGEIFS(data[Amount],data[Geography],B2)</f>
+        <v>4758.88</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F10,data[Geography],$B$2)</f>
+        <v>21931</v>
+      </c>
+      <c r="H10" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F10,data[Geography],$B$2)</f>
+        <v>975</v>
+      </c>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="34">
+        <f>SUMIFS(data[Cost],data[Geography],B2)</f>
+        <v>68259.839999999997</v>
+      </c>
+      <c r="C11" s="34">
+        <f>AVERAGEIFS(data[Cost],data[Geography],B2)</f>
+        <v>1365.1967999999999</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F11,data[Geography],$B$2)</f>
+        <v>27377</v>
+      </c>
+      <c r="H11" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F11,data[Geography],$B$2)</f>
+        <v>513</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="34">
+        <f>B10-B11</f>
+        <v>169684.16</v>
+      </c>
+      <c r="C12" s="34">
+        <f>C10-C11</f>
+        <v>3393.6832000000004</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F12,data[Geography],$B$2)</f>
+        <v>39620</v>
+      </c>
+      <c r="H12" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F12,data[Geography],$B$2)</f>
+        <v>573</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="34">
+        <f>SUMIFS(data[Units],data[Geography],B2)</f>
+        <v>7302</v>
+      </c>
+      <c r="C13" s="34">
+        <f>AVERAGEIFS(data[Units],data[Geography],B2)</f>
+        <v>146.04</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F13,data[Geography],$B$2)</f>
+        <v>18564</v>
+      </c>
+      <c r="H13" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F13,data[Geography],$B$2)</f>
+        <v>420</v>
+      </c>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F14,data[Geography],$B$2)</f>
+        <v>25669</v>
+      </c>
+      <c r="H14" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F14,data[Geography],$B$2)</f>
+        <v>564</v>
+      </c>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F15,data[Geography],$B$2)</f>
+        <v>13797</v>
+      </c>
+      <c r="H15" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F15,data[Geography],$B$2)</f>
+        <v>1053</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="37">
+        <f>SUMIFS(data[Amount],data[Sales Person],F16,data[Geography],$B$2)</f>
+        <v>23016</v>
+      </c>
+      <c r="H16" s="35">
+        <f>SUMIFS(data[Units],data[Sales Person],F16,data[Geography],$B$2)</f>
+        <v>663</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:H16">
+    <sortCondition ref="F7:F16"/>
+  </sortState>
+  <conditionalFormatting sqref="G7:G16">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D6518B58-B8EA-46DE-B87E-F7690621C3BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{F6026145-0C0E-4037-8627-ADAB528FEFD0}">
+      <formula1>$N$5:$N$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D6518B58-B8EA-46DE-B87E-F7690621C3BD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G7:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{4F28C689-85D5-42C0-A004-18D9605AFA2E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I6:I16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7CF452-8ED6-45B8-B795-672A72B5875B}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>SUMIFS(data[Amount], data[Product],A2)</f>
+        <v>66500</v>
+      </c>
+      <c r="C2">
+        <f>SUMIFS(data[Units], data[Product],A2)</f>
+        <v>2802</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>SUMIFS(data[Amount], data[Product],A3)</f>
+        <v>71967</v>
+      </c>
+      <c r="C3">
+        <f>SUMIFS(data[Units], data[Product],A3)</f>
+        <v>2301</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(data[Amount], data[Product],A4)</f>
+        <v>33551</v>
+      </c>
+      <c r="C4">
+        <f>SUMIFS(data[Units], data[Product],A4)</f>
+        <v>1566</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>SUMIFS(data[Amount], data[Product],A5)</f>
+        <v>52150</v>
+      </c>
+      <c r="C5">
+        <f>SUMIFS(data[Units], data[Product],A5)</f>
+        <v>1752</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>SUMIFS(data[Amount], data[Product],A6)</f>
+        <v>57372</v>
+      </c>
+      <c r="C6">
+        <f>SUMIFS(data[Units], data[Product],A6)</f>
+        <v>2106</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <f>SUMIFS(data[Amount], data[Product],A7)</f>
+        <v>69160</v>
+      </c>
+      <c r="C7">
+        <f>SUMIFS(data[Units], data[Product],A7)</f>
+        <v>1854</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f>SUMIFS(data[Amount], data[Product],A8)</f>
+        <v>39263</v>
+      </c>
+      <c r="C8">
+        <f>SUMIFS(data[Units], data[Product],A8)</f>
+        <v>1683</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <f>SUMIFS(data[Amount], data[Product],A9)</f>
+        <v>66283</v>
+      </c>
+      <c r="C9">
+        <f>SUMIFS(data[Units], data[Product],A9)</f>
+        <v>2052</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f>SUMIFS(data[Amount], data[Product],A10)</f>
+        <v>43183</v>
+      </c>
+      <c r="C10">
+        <f>SUMIFS(data[Units], data[Product],A10)</f>
+        <v>2022</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <f>SUMIFS(data[Amount], data[Product],A11)</f>
+        <v>63721</v>
+      </c>
+      <c r="C11">
+        <f>SUMIFS(data[Units], data[Product],A11)</f>
+        <v>2331</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <f>SUMIFS(data[Amount], data[Product],A12)</f>
+        <v>62111</v>
+      </c>
+      <c r="C12">
+        <f>SUMIFS(data[Units], data[Product],A12)</f>
+        <v>2154</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <f>SUMIFS(data[Amount], data[Product],A13)</f>
+        <v>47271</v>
+      </c>
+      <c r="C13">
+        <f>SUMIFS(data[Units], data[Product],A13)</f>
+        <v>1881</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <f>SUMIFS(data[Amount], data[Product],A14)</f>
+        <v>58009</v>
+      </c>
+      <c r="C14">
+        <f>SUMIFS(data[Units], data[Product],A14)</f>
+        <v>2976</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>SUMIFS(data[Amount], data[Product],A15)</f>
+        <v>54712</v>
+      </c>
+      <c r="C15">
+        <f>SUMIFS(data[Units], data[Product],A15)</f>
+        <v>2196</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>SUMIFS(data[Amount], data[Product],A16)</f>
+        <v>56644</v>
+      </c>
+      <c r="C16">
+        <f>SUMIFS(data[Units], data[Product],A16)</f>
+        <v>1812</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <f>SUMIFS(data[Amount], data[Product],A17)</f>
+        <v>44744</v>
+      </c>
+      <c r="C17">
+        <f>SUMIFS(data[Units], data[Product],A17)</f>
+        <v>1956</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <f>SUMIFS(data[Amount], data[Product],A18)</f>
+        <v>68971</v>
+      </c>
+      <c r="C18">
+        <f>SUMIFS(data[Units], data[Product],A18)</f>
+        <v>1533</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <f>SUMIFS(data[Amount], data[Product],A19)</f>
+        <v>35378</v>
+      </c>
+      <c r="C19">
+        <f>SUMIFS(data[Units], data[Product],A19)</f>
+        <v>1044</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <f>SUMIFS(data[Amount], data[Product],A20)</f>
+        <v>69461</v>
+      </c>
+      <c r="C20">
+        <f>SUMIFS(data[Units], data[Product],A20)</f>
+        <v>2982</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <f>SUMIFS(data[Amount], data[Product],A21)</f>
+        <v>72373</v>
+      </c>
+      <c r="C21">
+        <f>SUMIFS(data[Units], data[Product],A21)</f>
+        <v>3207</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <f>SUMIFS(data[Amount], data[Product],A22)</f>
+        <v>37772</v>
+      </c>
+      <c r="C22">
+        <f>SUMIFS(data[Units], data[Product],A22)</f>
+        <v>1308</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <f>SUMIFS(data[Amount], data[Product],A23)</f>
+        <v>70273</v>
+      </c>
+      <c r="C23">
+        <f>SUMIFS(data[Units], data[Product],A23)</f>
+        <v>2142</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910BCB7-EA6B-4DF2-97B7-FA9B2D9C9CEB}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43183</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="42">
+        <v>19525.600000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24">
+        <v>66500</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2802</v>
+      </c>
+      <c r="D3" s="42">
+        <v>25899.020000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="24">
+        <v>35378</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1044</v>
+      </c>
+      <c r="D4" s="42">
+        <v>30189.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44744</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1956</v>
+      </c>
+      <c r="D5" s="42">
+        <v>29800.160000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24">
+        <v>66283</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2052</v>
+      </c>
+      <c r="D6" s="42">
+        <v>46234.960000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>33551</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1566</v>
+      </c>
+      <c r="D7" s="42">
+        <v>14946.919999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24">
+        <v>70273</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2142</v>
+      </c>
+      <c r="D8" s="42">
+        <v>58277.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="24">
+        <v>72373</v>
+      </c>
+      <c r="C9" s="24">
+        <v>3207</v>
+      </c>
+      <c r="D9" s="42">
+        <v>39084.340000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24">
+        <v>71967</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2301</v>
+      </c>
+      <c r="D10" s="42">
+        <v>52063.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="24">
+        <v>52150</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1752</v>
+      </c>
+      <c r="D11" s="42">
+        <v>40814.559999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="24">
+        <v>63721</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2331</v>
+      </c>
+      <c r="D12" s="42">
+        <v>56471.590000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="24">
+        <v>56644</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1812</v>
+      </c>
+      <c r="D13" s="42">
+        <v>44884.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="24">
+        <v>58009</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2976</v>
+      </c>
+      <c r="D14" s="42">
+        <v>36700.840000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24">
+        <v>47271</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1881</v>
+      </c>
+      <c r="D15" s="42">
+        <v>29721.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="24">
+        <v>62111</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2154</v>
+      </c>
+      <c r="D16" s="42">
+        <v>43177.340000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24">
+        <v>54712</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2196</v>
+      </c>
+      <c r="D17" s="42">
+        <v>31390.480000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="24">
+        <v>69461</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2982</v>
+      </c>
+      <c r="D18" s="42">
+        <v>19572.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24">
+        <v>69160</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1854</v>
+      </c>
+      <c r="D19" s="42">
+        <v>46226.020000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="24">
+        <v>68971</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1533</v>
+      </c>
+      <c r="D20" s="42">
+        <v>50988.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24">
+        <v>39263</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1683</v>
+      </c>
+      <c r="D21" s="42">
+        <v>29518.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="24">
+        <v>37772</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1308</v>
+      </c>
+      <c r="D22" s="42">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24">
+        <v>57372</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2106</v>
+      </c>
+      <c r="D23" s="42">
+        <v>29678.099999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="24">
+        <v>1240869</v>
+      </c>
+      <c r="C24" s="24">
+        <v>45660</v>
+      </c>
+      <c r="D24" s="42">
+        <v>801165.2699999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18534,7 +23423,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18548,108 +23437,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <f>SUMIFS(data[Amount],data[Geography],B3)</f>
         <v>252469</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="21">
         <f>C3</f>
         <v>252469</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <f>SUMIFS(data[Units],data[Geography],B3)</f>
         <v>8760</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <f>SUMIFS(data[Amount],data[Geography],B4)</f>
         <v>237944</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="21">
         <f t="shared" ref="D4:D7" si="0">C4</f>
         <v>237944</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <f>SUMIFS(data[Units],data[Geography],B4)</f>
         <v>7302</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <f>SUMIFS(data[Amount],data[Geography],B5)</f>
         <v>189434</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
         <v>189434</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <f>SUMIFS(data[Units],data[Geography],B5)</f>
         <v>10158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <f>SUMIFS(data[Amount],data[Geography],B6)</f>
         <v>173530</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="21">
         <f t="shared" si="0"/>
         <v>173530</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="17">
         <f>SUMIFS(data[Units],data[Geography],B6)</f>
         <v>5745</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="19">
         <f>SUMIFS(data[Amount],data[Geography],B7)</f>
         <v>168679</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>168679</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="20">
         <f>SUMIFS(data[Units],data[Geography],B7)</f>
         <v>6264</v>
       </c>
@@ -18659,6 +23548,18 @@
     <sortCondition ref="B2:B6"/>
   </sortState>
   <conditionalFormatting sqref="D3:D7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EAFE0B02-4E94-4337-B741-D7B3BFFBFB51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -18671,18 +23572,6 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EAFE0B02-4E94-4337-B741-D7B3BFFBFB51}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18690,6 +23579,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EAFE0B02-4E94-4337-B741-D7B3BFFBFB51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{5638AB78-B2FB-46D8-ABF4-AFE72DC24384}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -18697,14 +23594,6 @@
               <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{EAFE0B02-4E94-4337-B741-D7B3BFFBFB51}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -18733,7 +23622,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
@@ -18747,13 +23636,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="25">
         <v>252469</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24">
         <v>252469</v>
       </c>
       <c r="D2" s="3">
@@ -18761,13 +23650,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="25">
         <v>237944</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="24">
         <v>237944</v>
       </c>
       <c r="D3" s="3">
@@ -18775,13 +23664,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="25">
         <v>218813</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="24">
         <v>218813</v>
       </c>
       <c r="D4" s="3">
@@ -18789,13 +23678,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="25">
         <v>189434</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="24">
         <v>189434</v>
       </c>
       <c r="D5" s="3">
@@ -18803,13 +23692,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="25">
         <v>173530</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="24">
         <v>173530</v>
       </c>
       <c r="D6" s="3">
@@ -18817,13 +23706,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="25">
         <v>168679</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="24">
         <v>168679</v>
       </c>
       <c r="D7" s="3">
@@ -18877,72 +23766,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8F73C2-F00D-4736-A8A8-7371FDC12FF4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44.990867579908674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22">
-        <v>37.303128371089535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="22">
-        <v>33.88697318007663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="22">
-        <v>32.807189542483663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="22">
-        <v>32.301656920077974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="22">
-        <v>35.949565217391303</v>
       </c>
     </row>
   </sheetData>
@@ -18954,8 +23820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0307E885-8128-4619-91DF-AC9A569D6D70}">
   <dimension ref="L1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24084,4 +28950,581 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72723C16-4183-42D4-969F-E2C75CE7DCAD}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="24">
+        <v>25221</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="24">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24">
+        <v>25221</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="24">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24">
+        <v>39620</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="24">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="24">
+        <v>39620</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="24">
+        <v>41559</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="24">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="24">
+        <v>41559</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="24">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43568</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="24">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43568</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="24">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45752</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="24">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24">
+        <v>45752</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>38325</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24">
+        <v>38325</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="24">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="24">
+        <v>234045</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="24">
+        <v>30709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452FE366-AD39-44F3-B5DA-944707FBB7E0}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43183</v>
+      </c>
+      <c r="C2" s="24">
+        <v>23657.399999999998</v>
+      </c>
+      <c r="D2" s="42">
+        <v>19525.600000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24">
+        <v>66500</v>
+      </c>
+      <c r="C3" s="24">
+        <v>40600.979999999989</v>
+      </c>
+      <c r="D3" s="42">
+        <v>25899.020000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="24">
+        <v>35378</v>
+      </c>
+      <c r="C4" s="24">
+        <v>5188.6799999999994</v>
+      </c>
+      <c r="D4" s="42">
+        <v>30189.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44744</v>
+      </c>
+      <c r="C5" s="24">
+        <v>14943.839999999998</v>
+      </c>
+      <c r="D5" s="42">
+        <v>29800.160000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24">
+        <v>66283</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20048.039999999997</v>
+      </c>
+      <c r="D6" s="42">
+        <v>46234.960000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>33551</v>
+      </c>
+      <c r="C7" s="24">
+        <v>18604.080000000002</v>
+      </c>
+      <c r="D7" s="42">
+        <v>14946.919999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24">
+        <v>70273</v>
+      </c>
+      <c r="C8" s="24">
+        <v>11995.199999999999</v>
+      </c>
+      <c r="D8" s="42">
+        <v>58277.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="24">
+        <v>72373</v>
+      </c>
+      <c r="C9" s="24">
+        <v>33288.659999999996</v>
+      </c>
+      <c r="D9" s="42">
+        <v>39084.340000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24">
+        <v>71967</v>
+      </c>
+      <c r="C10" s="24">
+        <v>19903.650000000001</v>
+      </c>
+      <c r="D10" s="42">
+        <v>52063.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="24">
+        <v>52150</v>
+      </c>
+      <c r="C11" s="24">
+        <v>11335.44</v>
+      </c>
+      <c r="D11" s="42">
+        <v>40814.559999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="24">
+        <v>63721</v>
+      </c>
+      <c r="C12" s="24">
+        <v>7249.4099999999989</v>
+      </c>
+      <c r="D12" s="42">
+        <v>56471.590000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="24">
+        <v>56644</v>
+      </c>
+      <c r="C13" s="24">
+        <v>11759.88</v>
+      </c>
+      <c r="D13" s="42">
+        <v>44884.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="24">
+        <v>58009</v>
+      </c>
+      <c r="C14" s="24">
+        <v>21308.159999999996</v>
+      </c>
+      <c r="D14" s="42">
+        <v>36700.840000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24">
+        <v>47271</v>
+      </c>
+      <c r="C15" s="24">
+        <v>17549.73</v>
+      </c>
+      <c r="D15" s="42">
+        <v>29721.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="24">
+        <v>62111</v>
+      </c>
+      <c r="C16" s="24">
+        <v>18933.659999999996</v>
+      </c>
+      <c r="D16" s="42">
+        <v>43177.340000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24">
+        <v>54712</v>
+      </c>
+      <c r="C17" s="24">
+        <v>23321.519999999997</v>
+      </c>
+      <c r="D17" s="42">
+        <v>31390.480000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="24">
+        <v>69461</v>
+      </c>
+      <c r="C18" s="24">
+        <v>49888.86</v>
+      </c>
+      <c r="D18" s="42">
+        <v>19572.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24">
+        <v>69160</v>
+      </c>
+      <c r="C19" s="24">
+        <v>22933.979999999996</v>
+      </c>
+      <c r="D19" s="42">
+        <v>46226.020000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="24">
+        <v>68971</v>
+      </c>
+      <c r="C20" s="24">
+        <v>17982.09</v>
+      </c>
+      <c r="D20" s="42">
+        <v>50988.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24">
+        <v>39263</v>
+      </c>
+      <c r="C21" s="24">
+        <v>9744.57</v>
+      </c>
+      <c r="D21" s="42">
+        <v>29518.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="24">
+        <v>37772</v>
+      </c>
+      <c r="C22" s="24">
+        <v>11772</v>
+      </c>
+      <c r="D22" s="42">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24">
+        <v>57372</v>
+      </c>
+      <c r="C23" s="24">
+        <v>27693.900000000005</v>
+      </c>
+      <c r="D23" s="42">
+        <v>29678.099999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="24">
+        <v>1240869</v>
+      </c>
+      <c r="C24" s="24">
+        <v>439703.7300000001</v>
+      </c>
+      <c r="D24" s="42">
+        <v>801165.2699999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>